--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -3,24 +3,40 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\venkatarami.reddy\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22890" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>destinatio</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,12 +352,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\venkatarami.reddy\eclipse-workspace\venkat.journey\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22890" windowHeight="7935"/>
   </bookViews>
@@ -10,7 +15,6 @@
     <sheet name="input" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,13 +32,13 @@
     <t>destinatio</t>
   </si>
   <si>
-    <t>Delhi</t>
-  </si>
-  <si>
     <t>Mumbai</t>
   </si>
   <si>
     <t>Pune</t>
+  </si>
+  <si>
+    <t>kolkata</t>
   </si>
 </sst>
 </file>
@@ -355,7 +359,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -370,18 +374,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>source</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>kolkata</t>
+  </si>
+  <si>
+    <t>BengaluruMumbai</t>
   </si>
 </sst>
 </file>
@@ -356,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,6 +391,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\venkatarami.reddy\eclipse-workspace\venkat.journey\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22890" windowHeight="7935"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14460" windowHeight="2040"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,9 +25,6 @@
     <t>source</t>
   </si>
   <si>
-    <t>destinatio</t>
-  </si>
-  <si>
     <t>Mumbai</t>
   </si>
   <si>
@@ -42,12 +35,15 @@
   </si>
   <si>
     <t>BengaluruMumbai</t>
+  </si>
+  <si>
+    <t>destination</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -139,7 +135,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -174,7 +170,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -351,7 +347,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -362,38 +358,41 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14460" windowHeight="2040"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14460" windowHeight="2040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
+    <sheet name="journey" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>source</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>destination</t>
+  </si>
+  <si>
+    <t>Delhi</t>
   </si>
 </sst>
 </file>
@@ -347,7 +350,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -357,7 +360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -398,4 +401,46 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -408,7 +408,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -350,7 +350,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
